--- a/test/ui/document/缺陷.xlsx
+++ b/test/ui/document/缺陷.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tangsang\EasyKiConverter\test\ui\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E8DFA5-6007-4A5B-A832-73DC1ADA24C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFADCCF-DA8F-4A59-8499-44F6EAD4AB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,12 +122,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开发推断可能是野指针导致的内存泄漏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正确有效元器件列表.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件弱网卡死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载安装3.0.4版本并打开软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“导入BOM文件”下点击并打开BOM文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOM_MP6539GV_Main_2026-02-10.xlsx</t>
+  </si>
+  <si>
+    <t>3.0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.4</t>
   </si>
 </sst>
 </file>
@@ -455,29 +481,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.06640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,8 +543,11 @@
       <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -544,7 +573,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>20</v>
@@ -553,9 +582,50 @@
         <v>21</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="F4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/ui/document/缺陷.xlsx
+++ b/test/ui/document/缺陷.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tangsang\EasyKiConverter\test\ui\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFADCCF-DA8F-4A59-8499-44F6EAD4AB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303A1F05-C35E-4CD6-991A-5B773CC70672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2782" yWindow="1943" windowWidth="14401" windowHeight="8182" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,10 @@
   </si>
   <si>
     <t>3.0.4</t>
+  </si>
+  <si>
+    <t>功能性、兼容性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -484,23 +488,24 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.06640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1">
@@ -604,7 +609,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>27</v>
